--- a/artfynd/A 9340-2023.xlsx
+++ b/artfynd/A 9340-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111453971</v>
+        <v>111453908</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>553895.6247467148</v>
+        <v>553948.4868154509</v>
       </c>
       <c r="R2" t="n">
-        <v>7003116.047775484</v>
+        <v>7003122.353914751</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111453908</v>
+        <v>111453971</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>553948.4868154509</v>
+        <v>553895.6247467148</v>
       </c>
       <c r="R3" t="n">
-        <v>7003122.353914751</v>
+        <v>7003116.047775484</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>

--- a/artfynd/A 9340-2023.xlsx
+++ b/artfynd/A 9340-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111453908</v>
+        <v>111453971</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>553948.4868154509</v>
+        <v>553895.6247467148</v>
       </c>
       <c r="R2" t="n">
-        <v>7003122.353914751</v>
+        <v>7003116.047775484</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111453971</v>
+        <v>111453908</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>553895.6247467148</v>
+        <v>553948.4868154509</v>
       </c>
       <c r="R3" t="n">
-        <v>7003116.047775484</v>
+        <v>7003122.353914751</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
